--- a/data/trans_camb/P44-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P44-Clase-trans_camb.xlsx
@@ -612,19 +612,19 @@
         <v>3.448672926024845</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>36.33908914035069</v>
+        <v>36.33908914035068</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-13.15267867959572</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19.41060320589499</v>
+        <v>19.410603205895</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-2.128672085263145</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>30.38994947657979</v>
+        <v>30.3899494765798</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.785293818611374</v>
+        <v>-6.431320409055716</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>27.84042924408227</v>
+        <v>26.35467775497338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-28.71662054995781</v>
+        <v>-27.85319786203126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.077308064542146</v>
+        <v>4.115248969223305</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.079996940734718</v>
+        <v>-10.64466109951687</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>23.31260576851856</v>
+        <v>22.41108332742717</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.56515851806686</v>
+        <v>12.15194642019033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45.2207006510484</v>
+        <v>44.63529195160019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.233075766713921</v>
+        <v>-0.8567844438424624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31.28807442448108</v>
+        <v>30.78406960809357</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.353825649956212</v>
+        <v>5.182632337793375</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>36.87158986245079</v>
+        <v>37.12737670122367</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>0.2389868447635705</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2.518233663070191</v>
+        <v>2.51823366307019</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.5647097547599553</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.8333935043322056</v>
+        <v>0.8333935043322058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1251434066716462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.786607637882501</v>
+        <v>1.786607637882502</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.34517597037717</v>
+        <v>-0.3408104651551127</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.217926427783377</v>
+        <v>1.204006661973805</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.857002567463101</v>
+        <v>-0.8239738875942926</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1424471846346959</v>
+        <v>0.1110683725931217</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4323543443242419</v>
+        <v>-0.4835308940990227</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.018332211373791</v>
+        <v>0.9113969615271842</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.530868075250014</v>
+        <v>1.316090156753418</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.891656257507699</v>
+        <v>4.927820009755415</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.03021011123510121</v>
+        <v>0.07871070003936846</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.390294434282754</v>
+        <v>2.199318965296919</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4117086241328065</v>
+        <v>0.4304910526368101</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.991206076915213</v>
+        <v>3.031515320116282</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-6.70431542217065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22.56163799788902</v>
+        <v>22.56163799788901</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.030964621044187</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>24.18675237543421</v>
+        <v>24.18675237543422</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8100578797409654</v>
+        <v>-1.107525691005027</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.00211905326739</v>
+        <v>16.86616068319807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.73273756314783</v>
+        <v>-16.09982567365471</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.15522748201972</v>
+        <v>9.536466169443234</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.198168371424765</v>
+        <v>-3.936484072704075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.52121483424188</v>
+        <v>17.33959243353311</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.15556742394617</v>
+        <v>16.28918590905855</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>32.72434941298511</v>
+        <v>32.64736121120866</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.591074998264793</v>
+        <v>2.674016635708735</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32.22480402867106</v>
+        <v>31.15987522252096</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.244506433914514</v>
+        <v>7.837557790131893</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>29.93531611937992</v>
+        <v>29.83894697898895</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.5479483805926347</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.843978426727708</v>
+        <v>1.843978426727707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1775896680777896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.11491489399982</v>
+        <v>2.114914893999821</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09870706707495569</v>
+        <v>-0.125276145682698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.9313200083486032</v>
+        <v>1.007185989750823</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.856410748557966</v>
+        <v>-0.8853088637074948</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5051109069354393</v>
+        <v>0.3736328216447706</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2870408210335491</v>
+        <v>-0.2959628771450861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.072630365144389</v>
+        <v>1.033338612214773</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.274766966680865</v>
+        <v>2.181620500555324</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.696253181101103</v>
+        <v>4.866548785437775</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.088617306122881</v>
+        <v>0.7285114791092492</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6.298452852138574</v>
+        <v>5.341313825457661</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.035125737603204</v>
+        <v>0.9884149946998533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.996892027685727</v>
+        <v>3.854130873133575</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-0.1869020669774471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23.55198619919964</v>
+        <v>23.55198619919963</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.02308119146189613</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.250314204016675</v>
+        <v>-6.715023841100823</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.46494690033494</v>
+        <v>19.57113633342262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.410239576379306</v>
+        <v>-8.626986630360438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14.721617211764</v>
+        <v>14.30835220428052</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.088431298985313</v>
+        <v>-5.148045004109663</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>20.51631182735751</v>
+        <v>20.71524307968671</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.465039836051823</v>
+        <v>5.258916267814557</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>34.45033169920432</v>
+        <v>34.18575273533078</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.007238369547032</v>
+        <v>8.065419107239675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33.11947204333445</v>
+        <v>31.81665444582038</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.308300743305386</v>
+        <v>4.594342181611928</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.64163219732555</v>
+        <v>31.59332844332973</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.02028048670408884</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.555593689744416</v>
+        <v>2.555593689744415</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.002151807985766357</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4910881959711991</v>
+        <v>-0.4670504449869192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.298834084666995</v>
+        <v>1.257017348159594</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7226656997170167</v>
+        <v>-0.7094402446277388</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.9011633680809131</v>
+        <v>0.910464388269804</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3739855492627296</v>
+        <v>-0.3816600822181417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.403613729965568</v>
+        <v>1.49644437122749</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6597340442698838</v>
+        <v>0.6457360604508789</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.243583346803833</v>
+        <v>4.345034774970967</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.71694907350759</v>
+        <v>1.703396727973873</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>7.230551663232531</v>
+        <v>6.357856738126189</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.691720690243613</v>
+        <v>0.5475492045209946</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.072900918846286</v>
+        <v>4.036915881450939</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>1.314459562129033</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>23.67185203911604</v>
+        <v>23.67185203911603</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1.613627298889486</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.42345140904345</v>
+        <v>-2.56489776293422</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>19.01788233034661</v>
+        <v>19.24252183475484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.729763767884799</v>
+        <v>-3.966951787053673</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14.7771111572207</v>
+        <v>15.11443459255535</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.623243492941126</v>
+        <v>-1.842302105717433</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.18394950261707</v>
+        <v>18.91742533967855</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.141963326106296</v>
+        <v>4.937021041604376</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>28.00205647534523</v>
+        <v>28.10184746271548</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.382558653715024</v>
+        <v>7.230467334914762</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25.70480338179851</v>
+        <v>25.5713525137188</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.374941848567988</v>
+        <v>4.298520645428022</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.17092880466711</v>
+        <v>26.13480552692422</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2264454731236259</v>
+        <v>-0.2516602460618799</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.656820959650692</v>
+        <v>1.655040583172595</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3576785159771609</v>
+        <v>-0.3791014031073861</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1.169143896151923</v>
+        <v>1.283686067883928</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1732947646133425</v>
+        <v>-0.1821528053296396</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.807443444857728</v>
+        <v>1.799831775159003</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8107414983552059</v>
+        <v>0.7702970291668563</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4.450582136811813</v>
+        <v>4.345018399744993</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.538092094789706</v>
+        <v>1.456355706204278</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.319581853960924</v>
+        <v>5.090949388239388</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6603354338872289</v>
+        <v>0.6719295478610129</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.962849217446748</v>
+        <v>4.053392449714795</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>0.2513817927483952</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18.89452311378091</v>
+        <v>18.8945231137809</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1.682285905353229</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4575361400370759</v>
+        <v>-0.952267511484661</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>17.3426707719111</v>
+        <v>17.92537990125149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.00518599138536</v>
+        <v>-3.610474863209606</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14.39374060116963</v>
+        <v>14.72087914456544</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.563846760027183</v>
+        <v>-1.519388594316253</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.12382045211314</v>
+        <v>17.15864094331506</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.641190735699409</v>
+        <v>8.366987672534602</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>29.18434635740736</v>
+        <v>30.17111406035323</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.193032338945035</v>
+        <v>4.381933778254332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22.81630903781636</v>
+        <v>23.11015024051544</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.557064396105597</v>
+        <v>4.556342431128557</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>23.86865788398854</v>
+        <v>24.07654390456494</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>0.03351584953716541</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2.519140256079734</v>
+        <v>2.519140256079733</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2530405845331384</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3.095429170876903</v>
+        <v>3.095429170876904</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1366464515085909</v>
+        <v>-0.2113759346745583</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>2.033119512207229</v>
+        <v>1.982533149593921</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4349923948640165</v>
+        <v>-0.3798930081183946</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1.41189758470294</v>
+        <v>1.317128976821262</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1988815414303985</v>
+        <v>-0.1996106433214385</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.945553257306345</v>
+        <v>1.908436938400014</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.992791135037628</v>
+        <v>2.60492752834223</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>11.05818403843512</v>
+        <v>10.10748869257439</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7510886773355594</v>
+        <v>0.7728024160356012</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.347210055276364</v>
+        <v>4.471886780916325</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.883702996350302</v>
+        <v>0.8727316104633942</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.916600888607671</v>
+        <v>4.810537166924377</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>0.9790814808862868</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22.91041681060064</v>
+        <v>22.91041681060065</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.9578649929312587</v>
@@ -1436,19 +1436,19 @@
       </c>
       <c r="C35" s="5" t="inlineStr"/>
       <c r="D35" s="5" t="n">
-        <v>13.5947871239948</v>
+        <v>13.20454556616981</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.574863341137426</v>
+        <v>-1.811819946620117</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19.17926798328182</v>
+        <v>19.16087516299535</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.454447362778487</v>
+        <v>-1.504211967426876</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>19.23985799982945</v>
+        <v>19.4840454337114</v>
       </c>
     </row>
     <row r="36">
@@ -1460,19 +1460,19 @@
       </c>
       <c r="C36" s="5" t="inlineStr"/>
       <c r="D36" s="5" t="n">
-        <v>58.81736630307476</v>
+        <v>64.57443225182489</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.806727887532649</v>
+        <v>3.607049688370794</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>26.75858709741664</v>
+        <v>26.39500035958092</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.841709497617452</v>
+        <v>3.851978941497909</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>26.40166157283974</v>
+        <v>26.71795159376882</v>
       </c>
     </row>
     <row r="37">
@@ -1492,7 +1492,7 @@
         <v>0.1905630811463348</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>4.459158612440254</v>
+        <v>4.459158612440255</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.187567891458771</v>
@@ -1511,16 +1511,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.256009045880454</v>
+        <v>-0.2917559627493947</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2.783681834263667</v>
+        <v>2.845782874564131</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2365024857654917</v>
+        <v>-0.2587180795153022</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.917053541501163</v>
+        <v>2.981947789962274</v>
       </c>
     </row>
     <row r="39">
@@ -1533,16 +1533,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>1.042017070219631</v>
+        <v>0.9126446145881306</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>6.798067331284258</v>
+        <v>7.279502357224723</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.9554021928062882</v>
+        <v>0.9698254292795282</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>6.937036913924974</v>
+        <v>7.258393112554393</v>
       </c>
     </row>
     <row r="40">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.4150257063849191</v>
+        <v>-0.1568175696770439</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>23.94359846607703</v>
+        <v>23.88076010105616</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.112916674190432</v>
+        <v>-1.889648029846402</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20.82643448614262</v>
+        <v>20.51127341790803</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5243989785086871</v>
+        <v>-0.4278335534243258</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>22.8089407863865</v>
+        <v>23.14424418118968</v>
       </c>
     </row>
     <row r="42">
@@ -1609,22 +1609,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.937002143287512</v>
+        <v>5.044985168578127</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>29.87310153081027</v>
+        <v>29.8418738037044</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.020781923172061</v>
+        <v>2.023077545610518</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25.35262956128213</v>
+        <v>24.97026621921335</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.668326284715042</v>
+        <v>2.671910311259156</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>26.63049865480435</v>
+        <v>26.57090452340793</v>
       </c>
     </row>
     <row r="43">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03872609590185037</v>
+        <v>-0.01515386580154569</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>2.164908608693052</v>
+        <v>2.098237418920279</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2471663214688433</v>
+        <v>-0.2255769468158966</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>2.379218008517083</v>
+        <v>2.305659508501687</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.05579192552555711</v>
+        <v>-0.04710225873286278</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>2.366964837242909</v>
+        <v>2.435521794944798</v>
       </c>
     </row>
     <row r="45">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6020333628836907</v>
+        <v>0.6149598968828894</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.811619628684491</v>
+        <v>3.718582862034312</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3016487331952831</v>
+        <v>0.3112549505520853</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3.981382045170168</v>
+        <v>4.02042814409119</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3557765818555079</v>
+        <v>0.3578896602534948</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.580622354909475</v>
+        <v>3.573098453656617</v>
       </c>
     </row>
     <row r="46">
